--- a/biology/Médecine/Tumeur_de_Warthin/Tumeur_de_Warthin.xlsx
+++ b/biology/Médecine/Tumeur_de_Warthin/Tumeur_de_Warthin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tumeur de Warthin (ou cystadénolymphome) est une tumeur des glandes salivaires bénigne.
 </t>
@@ -511,10 +523,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de la seconde lésion bénigne salivaire en termes de fréquence derrière l'adénome pléomorphe[1].
-La tumeur survient généralement aux alentours de la sixième décennie[1]. Le tabagisme est le principal facteur favorisant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de la seconde lésion bénigne salivaire en termes de fréquence derrière l'adénome pléomorphe.
+La tumeur survient généralement aux alentours de la sixième décennie. Le tabagisme est le principal facteur favorisant.
 </t>
         </is>
       </c>
@@ -545,12 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRM
-La présence en IRM de plages en hypersignal T1 spontané est un élément très utile au diagnostic positif de cystadénolymphome[1],[2]. Toutefois ce signe implique que l'examen d'imagerie soit réalisé à distance d'une cytoponction compte tenu des éventuels remaniements hémorragiques induits par le geste pouvant également apparaître en hypersignal T1.
-Le coefficient de diffusion (ADC) ne contribue pas au diagnostic positif ou différentiel. Sa valeur est élevée dans les portions kystiques et parfois très abaissée dans les portions tissulaires[1]. 
-La courbe de perfusion est généralement de type B au sein des portions tissulaires de la lésion (pic de rehaussement précoce et lavage rapide &gt; 30%)[1]. Le lavage de la lésion peu donner l'impression d'une absence de prise de contraste sur les séquences injectées conventionnelles.
-Médecine nucléaire
-La tumeur de Warthin présente un hypermétabolisme en tomographie par émission de positons au 18F-FDG[3].
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence en IRM de plages en hypersignal T1 spontané est un élément très utile au diagnostic positif de cystadénolymphome,. Toutefois ce signe implique que l'examen d'imagerie soit réalisé à distance d'une cytoponction compte tenu des éventuels remaniements hémorragiques induits par le geste pouvant également apparaître en hypersignal T1.
+Le coefficient de diffusion (ADC) ne contribue pas au diagnostic positif ou différentiel. Sa valeur est élevée dans les portions kystiques et parfois très abaissée dans les portions tissulaires. 
+La courbe de perfusion est généralement de type B au sein des portions tissulaires de la lésion (pic de rehaussement précoce et lavage rapide &gt; 30%). Le lavage de la lésion peu donner l'impression d'une absence de prise de contraste sur les séquences injectées conventionnelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tumeur_de_Warthin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tumeur_de_Warthin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Imagerie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecine nucléaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tumeur de Warthin présente un hypermétabolisme en tomographie par émission de positons au 18F-FDG.
 </t>
         </is>
       </c>
